--- a/sodocosodulieu.xlsx
+++ b/sodocosodulieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD44157-B704-4AFA-A931-DDF676BB646C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616159D1-E3F3-4E3C-BE40-C32C1A96C9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{F5093153-23A0-4EBA-B484-0093EEC71099}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>user</t>
   </si>
@@ -496,7 +496,7 @@
   <dimension ref="A3:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -549,9 +549,6 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -598,7 +595,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -630,7 +627,7 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>

--- a/sodocosodulieu.xlsx
+++ b/sodocosodulieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616159D1-E3F3-4E3C-BE40-C32C1A96C9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008DEE4C-BFBB-440F-B98A-4EFC3E72BBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{F5093153-23A0-4EBA-B484-0093EEC71099}"/>
+    <workbookView xWindow="6744" yWindow="5520" windowWidth="16440" windowHeight="9420" xr2:uid="{F5093153-23A0-4EBA-B484-0093EEC71099}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>user</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>staff_password</t>
+  </si>
+  <si>
+    <t>product_image</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A3:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -555,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -563,7 +566,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -571,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -581,9 +584,6 @@
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
@@ -603,7 +603,7 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -611,7 +611,7 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -627,7 +627,7 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -636,6 +636,9 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>26</v>

--- a/sodocosodulieu.xlsx
+++ b/sodocosodulieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008DEE4C-BFBB-440F-B98A-4EFC3E72BBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACD59B3-6DC3-43E5-B3D5-DA7E17BA01F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6744" yWindow="5520" windowWidth="16440" windowHeight="9420" xr2:uid="{F5093153-23A0-4EBA-B484-0093EEC71099}"/>
+    <workbookView xWindow="5484" yWindow="3540" windowWidth="16440" windowHeight="9420" xr2:uid="{F5093153-23A0-4EBA-B484-0093EEC71099}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>user</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>product_image</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="A3:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -552,6 +555,9 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -559,6 +565,9 @@
       </c>
       <c r="C7" t="s">
         <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
